--- a/1/5/Indicadores de coyuntura 2003 a 2021 - Mensual.xlsx
+++ b/1/5/Indicadores de coyuntura 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>Serie</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2001,7 +2004,7 @@
         <v>80.09999999999999</v>
       </c>
       <c r="C68">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="D68">
         <v>0.3</v>
@@ -2043,7 +2046,7 @@
         <v>84.09999999999999</v>
       </c>
       <c r="C71">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D71">
         <v>-1.7</v>
@@ -2085,7 +2088,7 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C74">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D74">
         <v>-1.1</v>
@@ -2099,7 +2102,7 @@
         <v>74.8</v>
       </c>
       <c r="C75">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="D75">
         <v>-0.8</v>
@@ -2239,7 +2242,7 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="D85">
         <v>1.3</v>
@@ -2424,7 +2427,7 @@
         <v>89.3</v>
       </c>
       <c r="D98">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2452,7 +2455,7 @@
         <v>90.2</v>
       </c>
       <c r="D100">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2564,7 +2567,7 @@
         <v>92.40000000000001</v>
       </c>
       <c r="D108">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2617,7 +2620,7 @@
         <v>99.7</v>
       </c>
       <c r="C112">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="D112">
         <v>1.7</v>
@@ -2659,7 +2662,7 @@
         <v>95.8</v>
       </c>
       <c r="C115">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="D115">
         <v>1.5</v>
@@ -2774,7 +2777,7 @@
         <v>98</v>
       </c>
       <c r="D123">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2956,7 +2959,7 @@
         <v>101.3</v>
       </c>
       <c r="D136">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2970,7 +2973,7 @@
         <v>101.4</v>
       </c>
       <c r="D137">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3180,7 +3183,7 @@
         <v>104.1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3233,7 +3236,7 @@
         <v>109.7</v>
       </c>
       <c r="C156">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="D156">
         <v>0.9</v>
@@ -3278,7 +3281,7 @@
         <v>105.9</v>
       </c>
       <c r="D159">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3289,7 +3292,7 @@
         <v>111.3</v>
       </c>
       <c r="C160">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D160">
         <v>0.7</v>
@@ -3362,7 +3365,7 @@
         <v>105.7</v>
       </c>
       <c r="D165">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3376,7 +3379,7 @@
         <v>106.1</v>
       </c>
       <c r="D166">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3404,7 +3407,7 @@
         <v>106.4</v>
       </c>
       <c r="D168">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3432,7 +3435,7 @@
         <v>105.9</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3471,7 +3474,7 @@
         <v>105.9</v>
       </c>
       <c r="C173">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D173">
         <v>-0.8</v>
@@ -3488,7 +3491,7 @@
         <v>106.3</v>
       </c>
       <c r="D174">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3502,7 +3505,7 @@
         <v>106.8</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3513,7 +3516,7 @@
         <v>102</v>
       </c>
       <c r="C176">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="D176">
         <v>1.7</v>
@@ -3527,10 +3530,10 @@
         <v>106.7</v>
       </c>
       <c r="C177">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="D177">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3544,7 +3547,7 @@
         <v>108.7</v>
       </c>
       <c r="D178">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3597,7 +3600,7 @@
         <v>106.9</v>
       </c>
       <c r="C182">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="D182">
         <v>0.9</v>
@@ -3611,7 +3614,7 @@
         <v>102.5</v>
       </c>
       <c r="C183">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="D183">
         <v>0.7</v>
@@ -3639,7 +3642,7 @@
         <v>112.7</v>
       </c>
       <c r="C185">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="D185">
         <v>1.2</v>
@@ -3681,10 +3684,10 @@
         <v>105.1</v>
       </c>
       <c r="C188">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="D188">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3698,7 +3701,7 @@
         <v>110.4</v>
       </c>
       <c r="D189">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3709,10 +3712,10 @@
         <v>104.8</v>
       </c>
       <c r="C190">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="D190">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3726,7 +3729,7 @@
         <v>111.8</v>
       </c>
       <c r="D191">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3754,7 +3757,7 @@
         <v>111.8</v>
       </c>
       <c r="D193">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3768,7 +3771,7 @@
         <v>112.3</v>
       </c>
       <c r="D194">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3782,7 +3785,7 @@
         <v>111.3</v>
       </c>
       <c r="D195">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3796,7 +3799,7 @@
         <v>112.3</v>
       </c>
       <c r="D196">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3807,10 +3810,10 @@
         <v>114.3</v>
       </c>
       <c r="C197">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="D197">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3835,10 +3838,10 @@
         <v>111.2</v>
       </c>
       <c r="C199">
-        <v>112.8</v>
+        <v>112.9</v>
       </c>
       <c r="D199">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3849,7 +3852,7 @@
         <v>108.3</v>
       </c>
       <c r="C200">
-        <v>113.3</v>
+        <v>113.1</v>
       </c>
       <c r="D200">
         <v>0.9</v>
@@ -3866,7 +3869,7 @@
         <v>114.6</v>
       </c>
       <c r="D201">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3880,7 +3883,7 @@
         <v>114.2</v>
       </c>
       <c r="D202">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3894,7 +3897,7 @@
         <v>108.1</v>
       </c>
       <c r="D203">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3919,7 +3922,7 @@
         <v>123</v>
       </c>
       <c r="C205">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="D205">
         <v>-3.8</v>
@@ -3933,10 +3936,10 @@
         <v>110</v>
       </c>
       <c r="C206">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="D206">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3947,10 +3950,10 @@
         <v>106.3</v>
       </c>
       <c r="C207">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="D207">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3961,7 +3964,7 @@
         <v>113.4</v>
       </c>
       <c r="C208">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="D208">
         <v>2</v>
@@ -3975,7 +3978,7 @@
         <v>98.5</v>
       </c>
       <c r="C209">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="D209">
         <v>-4.1</v>
@@ -4003,7 +4006,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="C211">
-        <v>96.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D211">
         <v>-12.6</v>
@@ -4017,7 +4020,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="C212">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="D212">
         <v>-8.6</v>
@@ -4034,7 +4037,7 @@
         <v>102.3</v>
       </c>
       <c r="D213">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4045,10 +4048,10 @@
         <v>103.2</v>
       </c>
       <c r="C214">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="D214">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4059,10 +4062,10 @@
         <v>108.5</v>
       </c>
       <c r="C215">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="D215">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4090,7 +4093,7 @@
         <v>112</v>
       </c>
       <c r="D217">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4098,7 +4101,7 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="C218">
         <v>112.8</v>
@@ -4112,13 +4115,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="C219">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="D219">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4126,13 +4129,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>120</v>
+        <v>120.5</v>
       </c>
       <c r="C220">
-        <v>112.6</v>
+        <v>113</v>
       </c>
       <c r="D220">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4140,13 +4143,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>112.3</v>
+        <v>112.8</v>
       </c>
       <c r="C221">
-        <v>111</v>
+        <v>111.5</v>
       </c>
       <c r="D221">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4154,13 +4157,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>115.5</v>
+        <v>116.6</v>
       </c>
       <c r="C222">
-        <v>114.1</v>
+        <v>115.2</v>
       </c>
       <c r="D222">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4168,13 +4171,27 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>115.5</v>
+        <v>115.9</v>
       </c>
       <c r="C223">
-        <v>116.5</v>
+        <v>117.2</v>
       </c>
       <c r="D223">
-        <v>0.7</v>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224">
+        <v>113.5</v>
+      </c>
+      <c r="C224">
+        <v>118.8</v>
+      </c>
+      <c r="D224">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/1/5/Indicadores de coyuntura 2003 a 2021 - Mensual.xlsx
+++ b/1/5/Indicadores de coyuntura 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Serie</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1923,7 +1926,7 @@
         <v>82.40000000000001</v>
       </c>
       <c r="D62">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1934,7 +1937,7 @@
         <v>78.3</v>
       </c>
       <c r="C63">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="D63">
         <v>2.4</v>
@@ -1993,7 +1996,7 @@
         <v>83.5</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2004,7 +2007,7 @@
         <v>80.09999999999999</v>
       </c>
       <c r="C68">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D68">
         <v>0.3</v>
@@ -2032,7 +2035,7 @@
         <v>78.7</v>
       </c>
       <c r="C70">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D70">
         <v>-0.8</v>
@@ -2049,7 +2052,7 @@
         <v>82.40000000000001</v>
       </c>
       <c r="D71">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2063,7 +2066,7 @@
         <v>80.59999999999999</v>
       </c>
       <c r="D72">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2088,7 +2091,7 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C74">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D74">
         <v>-1.1</v>
@@ -2102,10 +2105,10 @@
         <v>74.8</v>
       </c>
       <c r="C75">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="D75">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2116,7 +2119,7 @@
         <v>85</v>
       </c>
       <c r="C76">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="D76">
         <v>-0.8</v>
@@ -2200,7 +2203,7 @@
         <v>78.7</v>
       </c>
       <c r="C82">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="D82">
         <v>1.1</v>
@@ -2245,7 +2248,7 @@
         <v>82.7</v>
       </c>
       <c r="D85">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2259,7 +2262,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="D86">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2273,7 +2276,7 @@
         <v>84</v>
       </c>
       <c r="D87">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2368,10 +2371,10 @@
         <v>83.8</v>
       </c>
       <c r="C94">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="D94">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2413,7 +2416,7 @@
         <v>88.5</v>
       </c>
       <c r="D97">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2427,7 +2430,7 @@
         <v>89.3</v>
       </c>
       <c r="D98">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2567,7 +2570,7 @@
         <v>92.40000000000001</v>
       </c>
       <c r="D108">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2578,7 +2581,7 @@
         <v>101.6</v>
       </c>
       <c r="C109">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D109">
         <v>1.9</v>
@@ -2592,7 +2595,7 @@
         <v>91.09999999999999</v>
       </c>
       <c r="C110">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -2609,7 +2612,7 @@
         <v>94.5</v>
       </c>
       <c r="D111">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2637,7 +2640,7 @@
         <v>95.8</v>
       </c>
       <c r="D113">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2651,7 +2654,7 @@
         <v>95.8</v>
       </c>
       <c r="D114">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2690,7 +2693,7 @@
         <v>96</v>
       </c>
       <c r="C117">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2718,7 +2721,7 @@
         <v>98.8</v>
       </c>
       <c r="C119">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="D119">
         <v>0.4</v>
@@ -2763,7 +2766,7 @@
         <v>98.40000000000001</v>
       </c>
       <c r="D122">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2777,7 +2780,7 @@
         <v>98</v>
       </c>
       <c r="D123">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2903,7 +2906,7 @@
         <v>101.5</v>
       </c>
       <c r="D132">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2931,7 +2934,7 @@
         <v>100.7</v>
       </c>
       <c r="D134">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2945,7 +2948,7 @@
         <v>101.4</v>
       </c>
       <c r="D135">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2956,7 +2959,7 @@
         <v>105.8</v>
       </c>
       <c r="C136">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="D136">
         <v>0.2</v>
@@ -3085,7 +3088,7 @@
         <v>102.7</v>
       </c>
       <c r="D145">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3155,7 +3158,7 @@
         <v>104</v>
       </c>
       <c r="D150">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3183,7 +3186,7 @@
         <v>104.1</v>
       </c>
       <c r="D152">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3194,7 +3197,7 @@
         <v>101.3</v>
       </c>
       <c r="C153">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D153">
         <v>0.3</v>
@@ -3239,7 +3242,7 @@
         <v>104.7</v>
       </c>
       <c r="D156">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3253,7 +3256,7 @@
         <v>105</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3281,7 +3284,7 @@
         <v>105.9</v>
       </c>
       <c r="D159">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3334,7 +3337,7 @@
         <v>104.9</v>
       </c>
       <c r="C163">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D163">
         <v>-0.2</v>
@@ -3362,10 +3365,10 @@
         <v>104.5</v>
       </c>
       <c r="C165">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3418,10 +3421,10 @@
         <v>115.1</v>
       </c>
       <c r="C169">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="D169">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3432,10 +3435,10 @@
         <v>102.7</v>
       </c>
       <c r="C170">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="D170">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3449,7 +3452,7 @@
         <v>105.2</v>
       </c>
       <c r="D171">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3474,10 +3477,10 @@
         <v>105.9</v>
       </c>
       <c r="C173">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="D173">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3488,7 +3491,7 @@
         <v>108.6</v>
       </c>
       <c r="C174">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -3502,7 +3505,7 @@
         <v>105.7</v>
       </c>
       <c r="C175">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D175">
         <v>1.1</v>
@@ -3530,10 +3533,10 @@
         <v>106.7</v>
       </c>
       <c r="C177">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="D177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3558,10 +3561,10 @@
         <v>109.5</v>
       </c>
       <c r="C179">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="D179">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3572,10 +3575,10 @@
         <v>114.9</v>
       </c>
       <c r="C180">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="D180">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3589,7 +3592,7 @@
         <v>109</v>
       </c>
       <c r="D181">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3600,7 +3603,7 @@
         <v>106.9</v>
       </c>
       <c r="C182">
-        <v>110.1</v>
+        <v>110</v>
       </c>
       <c r="D182">
         <v>0.9</v>
@@ -3614,10 +3617,10 @@
         <v>102.5</v>
       </c>
       <c r="C183">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="D183">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3631,7 +3634,7 @@
         <v>110.7</v>
       </c>
       <c r="D184">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3642,10 +3645,10 @@
         <v>112.7</v>
       </c>
       <c r="C185">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="D185">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3656,10 +3659,10 @@
         <v>113.3</v>
       </c>
       <c r="C186">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="D186">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3670,10 +3673,10 @@
         <v>110.1</v>
       </c>
       <c r="C187">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="D187">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3684,10 +3687,10 @@
         <v>105.1</v>
       </c>
       <c r="C188">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="D188">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3701,7 +3704,7 @@
         <v>110.4</v>
       </c>
       <c r="D189">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3715,7 +3718,7 @@
         <v>111.2</v>
       </c>
       <c r="D190">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3726,10 +3729,10 @@
         <v>113.4</v>
       </c>
       <c r="C191">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="D191">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3740,10 +3743,10 @@
         <v>118.1</v>
       </c>
       <c r="C192">
-        <v>113.1</v>
+        <v>113</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3754,10 +3757,10 @@
         <v>121.2</v>
       </c>
       <c r="C193">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="D193">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3768,10 +3771,10 @@
         <v>108.6</v>
       </c>
       <c r="C194">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="D194">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3810,10 +3813,10 @@
         <v>114.3</v>
       </c>
       <c r="C197">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="D197">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3824,10 +3827,10 @@
         <v>115.5</v>
       </c>
       <c r="C198">
-        <v>113.7</v>
+        <v>113.9</v>
       </c>
       <c r="D198">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3838,10 +3841,10 @@
         <v>111.2</v>
       </c>
       <c r="C199">
-        <v>112.9</v>
+        <v>113.1</v>
       </c>
       <c r="D199">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3852,10 +3855,10 @@
         <v>108.3</v>
       </c>
       <c r="C200">
-        <v>113.1</v>
+        <v>113.3</v>
       </c>
       <c r="D200">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3880,10 +3883,10 @@
         <v>108.3</v>
       </c>
       <c r="C202">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
       <c r="D202">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3894,10 +3897,10 @@
         <v>109.5</v>
       </c>
       <c r="C203">
-        <v>108.1</v>
+        <v>107.9</v>
       </c>
       <c r="D203">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3908,10 +3911,10 @@
         <v>113.5</v>
       </c>
       <c r="C204">
-        <v>108.8</v>
+        <v>108.6</v>
       </c>
       <c r="D204">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3922,10 +3925,10 @@
         <v>123</v>
       </c>
       <c r="C205">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="D205">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3936,10 +3939,10 @@
         <v>110</v>
       </c>
       <c r="C206">
-        <v>113.8</v>
+        <v>113.7</v>
       </c>
       <c r="D206">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3964,10 +3967,10 @@
         <v>113.4</v>
       </c>
       <c r="C208">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3978,10 +3981,10 @@
         <v>98.5</v>
       </c>
       <c r="C209">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D209">
-        <v>-4.1</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3992,10 +3995,10 @@
         <v>97.8</v>
       </c>
       <c r="C210">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D210">
-        <v>-10.5</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4006,10 +4009,10 @@
         <v>96.09999999999999</v>
       </c>
       <c r="C211">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="D211">
-        <v>-12.6</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4020,7 +4023,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="C212">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="D212">
         <v>-8.6</v>
@@ -4048,10 +4051,10 @@
         <v>103.2</v>
       </c>
       <c r="C214">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="D214">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4062,10 +4065,10 @@
         <v>108.5</v>
       </c>
       <c r="C215">
-        <v>107.4</v>
+        <v>107.2</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4076,10 +4079,10 @@
         <v>114.6</v>
       </c>
       <c r="C216">
-        <v>109.2</v>
+        <v>108.9</v>
       </c>
       <c r="D216">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4090,10 +4093,10 @@
         <v>122.9</v>
       </c>
       <c r="C217">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="D217">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4104,7 +4107,7 @@
         <v>106.7</v>
       </c>
       <c r="C218">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="D218">
         <v>5.4</v>
@@ -4118,10 +4121,10 @@
         <v>104.2</v>
       </c>
       <c r="C219">
-        <v>114.1</v>
+        <v>114.2</v>
       </c>
       <c r="D219">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4132,10 +4135,10 @@
         <v>120.5</v>
       </c>
       <c r="C220">
-        <v>113</v>
+        <v>113.1</v>
       </c>
       <c r="D220">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4146,10 +4149,10 @@
         <v>112.8</v>
       </c>
       <c r="C221">
-        <v>111.5</v>
+        <v>111.8</v>
       </c>
       <c r="D221">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4160,10 +4163,10 @@
         <v>116.6</v>
       </c>
       <c r="C222">
-        <v>115.2</v>
+        <v>115.4</v>
       </c>
       <c r="D222">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4174,10 +4177,10 @@
         <v>115.9</v>
       </c>
       <c r="C223">
-        <v>117.2</v>
+        <v>117.5</v>
       </c>
       <c r="D223">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4188,10 +4191,24 @@
         <v>113.5</v>
       </c>
       <c r="C224">
-        <v>118.8</v>
+        <v>119.2</v>
       </c>
       <c r="D224">
-        <v>3.7</v>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225">
+        <v>120.3</v>
+      </c>
+      <c r="C225">
+        <v>120.4</v>
+      </c>
+      <c r="D225">
+        <v>4.9</v>
       </c>
     </row>
   </sheetData>

--- a/1/5/Indicadores de coyuntura 2003 a 2021 - Mensual.xlsx
+++ b/1/5/Indicadores de coyuntura 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>Serie</t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1926,7 +1929,7 @@
         <v>82.40000000000001</v>
       </c>
       <c r="D62">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1937,7 +1940,7 @@
         <v>78.3</v>
       </c>
       <c r="C63">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D63">
         <v>2.4</v>
@@ -1996,7 +1999,7 @@
         <v>83.5</v>
       </c>
       <c r="D67">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2007,7 +2010,7 @@
         <v>80.09999999999999</v>
       </c>
       <c r="C68">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="D68">
         <v>0.3</v>
@@ -2035,7 +2038,7 @@
         <v>78.7</v>
       </c>
       <c r="C70">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="D70">
         <v>-0.8</v>
@@ -2052,7 +2055,7 @@
         <v>82.40000000000001</v>
       </c>
       <c r="D71">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2063,10 +2066,10 @@
         <v>82.90000000000001</v>
       </c>
       <c r="C72">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="D72">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2091,7 +2094,7 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C74">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D74">
         <v>-1.1</v>
@@ -2105,10 +2108,10 @@
         <v>74.8</v>
       </c>
       <c r="C75">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="D75">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2119,7 +2122,7 @@
         <v>85</v>
       </c>
       <c r="C76">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D76">
         <v>-0.8</v>
@@ -2203,7 +2206,7 @@
         <v>78.7</v>
       </c>
       <c r="C82">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D82">
         <v>1.1</v>
@@ -2262,7 +2265,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="D86">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2273,10 +2276,10 @@
         <v>77.59999999999999</v>
       </c>
       <c r="C87">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D87">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2290,7 +2293,7 @@
         <v>80.59999999999999</v>
       </c>
       <c r="D88">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2329,7 +2332,7 @@
         <v>85.7</v>
       </c>
       <c r="C91">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D91">
         <v>3.4</v>
@@ -2371,10 +2374,10 @@
         <v>83.8</v>
       </c>
       <c r="C94">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="D94">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2430,7 +2433,7 @@
         <v>89.3</v>
       </c>
       <c r="D98">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2511,7 +2514,7 @@
         <v>86.2</v>
       </c>
       <c r="C104">
-        <v>90.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D104">
         <v>0.8</v>
@@ -2570,7 +2573,7 @@
         <v>92.40000000000001</v>
       </c>
       <c r="D108">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2612,7 +2615,7 @@
         <v>94.5</v>
       </c>
       <c r="D111">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2665,7 +2668,7 @@
         <v>95.8</v>
       </c>
       <c r="C115">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="D115">
         <v>1.5</v>
@@ -2738,7 +2741,7 @@
         <v>97.40000000000001</v>
       </c>
       <c r="D120">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2766,7 +2769,7 @@
         <v>98.40000000000001</v>
       </c>
       <c r="D122">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2780,7 +2783,7 @@
         <v>98</v>
       </c>
       <c r="D123">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2892,7 +2895,7 @@
         <v>100.9</v>
       </c>
       <c r="D131">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2931,10 +2934,10 @@
         <v>97.7</v>
       </c>
       <c r="C134">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="D134">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2948,7 +2951,7 @@
         <v>101.4</v>
       </c>
       <c r="D135">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3029,7 +3032,7 @@
         <v>99.5</v>
       </c>
       <c r="C141">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D141">
         <v>-0.2</v>
@@ -3071,10 +3074,10 @@
         <v>106.9</v>
       </c>
       <c r="C144">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="D144">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3102,7 +3105,7 @@
         <v>103.3</v>
       </c>
       <c r="D146">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3155,7 +3158,7 @@
         <v>105.3</v>
       </c>
       <c r="C150">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D150">
         <v>0.7</v>
@@ -3169,10 +3172,10 @@
         <v>103.6</v>
       </c>
       <c r="C151">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D151">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3267,7 +3270,7 @@
         <v>101.7</v>
       </c>
       <c r="C158">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="D158">
         <v>0.7</v>
@@ -3284,7 +3287,7 @@
         <v>105.9</v>
       </c>
       <c r="D159">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3295,7 +3298,7 @@
         <v>111.3</v>
       </c>
       <c r="C160">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="D160">
         <v>0.7</v>
@@ -3323,7 +3326,7 @@
         <v>107.4</v>
       </c>
       <c r="C162">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -3340,7 +3343,7 @@
         <v>106</v>
       </c>
       <c r="D163">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3351,10 +3354,10 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C164">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D164">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3379,7 +3382,7 @@
         <v>101.5</v>
       </c>
       <c r="C166">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="D166">
         <v>0.3</v>
@@ -3396,7 +3399,7 @@
         <v>106</v>
       </c>
       <c r="D167">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3407,10 +3410,10 @@
         <v>111.6</v>
       </c>
       <c r="C168">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="D168">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3449,7 +3452,7 @@
         <v>97.90000000000001</v>
       </c>
       <c r="C171">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="D171">
         <v>-0.5</v>
@@ -3491,10 +3494,10 @@
         <v>108.6</v>
       </c>
       <c r="C174">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3505,10 +3508,10 @@
         <v>105.7</v>
       </c>
       <c r="C175">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D175">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3519,10 +3522,10 @@
         <v>102</v>
       </c>
       <c r="C176">
-        <v>107.7</v>
+        <v>107.9</v>
       </c>
       <c r="D176">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3533,10 +3536,10 @@
         <v>106.7</v>
       </c>
       <c r="C177">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="D177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3547,7 +3550,7 @@
         <v>103</v>
       </c>
       <c r="C178">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="D178">
         <v>1.7</v>
@@ -3564,7 +3567,7 @@
         <v>108.7</v>
       </c>
       <c r="D179">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3575,10 +3578,10 @@
         <v>114.9</v>
       </c>
       <c r="C180">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="D180">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3589,10 +3592,10 @@
         <v>117.8</v>
       </c>
       <c r="C181">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="D181">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3603,10 +3606,10 @@
         <v>106.9</v>
       </c>
       <c r="C182">
-        <v>110</v>
+        <v>109.9</v>
       </c>
       <c r="D182">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3659,10 +3662,10 @@
         <v>113.3</v>
       </c>
       <c r="C186">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="D186">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3673,10 +3676,10 @@
         <v>110.1</v>
       </c>
       <c r="C187">
-        <v>111.3</v>
+        <v>111.5</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3687,10 +3690,10 @@
         <v>105.1</v>
       </c>
       <c r="C188">
-        <v>111.3</v>
+        <v>111.5</v>
       </c>
       <c r="D188">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3701,10 +3704,10 @@
         <v>109.3</v>
       </c>
       <c r="C189">
-        <v>110.4</v>
+        <v>110.6</v>
       </c>
       <c r="D189">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3715,7 +3718,7 @@
         <v>104.8</v>
       </c>
       <c r="C190">
-        <v>111.2</v>
+        <v>111</v>
       </c>
       <c r="D190">
         <v>-0.5</v>
@@ -3729,10 +3732,10 @@
         <v>113.4</v>
       </c>
       <c r="C191">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="D191">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3743,10 +3746,10 @@
         <v>118.1</v>
       </c>
       <c r="C192">
-        <v>113</v>
+        <v>112.8</v>
       </c>
       <c r="D192">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3757,10 +3760,10 @@
         <v>121.2</v>
       </c>
       <c r="C193">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3771,10 +3774,10 @@
         <v>108.6</v>
       </c>
       <c r="C194">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="D194">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3785,10 +3788,10 @@
         <v>103</v>
       </c>
       <c r="C195">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="D195">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3799,10 +3802,10 @@
         <v>117.6</v>
       </c>
       <c r="C196">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="D196">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3813,10 +3816,10 @@
         <v>114.3</v>
       </c>
       <c r="C197">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3827,10 +3830,10 @@
         <v>115.5</v>
       </c>
       <c r="C198">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="D198">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3841,10 +3844,10 @@
         <v>111.2</v>
       </c>
       <c r="C199">
-        <v>113.1</v>
+        <v>113.3</v>
       </c>
       <c r="D199">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3855,10 +3858,10 @@
         <v>108.3</v>
       </c>
       <c r="C200">
-        <v>113.3</v>
+        <v>113.6</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3869,10 +3872,10 @@
         <v>113.4</v>
       </c>
       <c r="C201">
-        <v>114.6</v>
+        <v>114.9</v>
       </c>
       <c r="D201">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3883,10 +3886,10 @@
         <v>108.3</v>
       </c>
       <c r="C202">
-        <v>114.1</v>
+        <v>113.8</v>
       </c>
       <c r="D202">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3897,10 +3900,10 @@
         <v>109.5</v>
       </c>
       <c r="C203">
-        <v>107.9</v>
+        <v>107.7</v>
       </c>
       <c r="D203">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3911,10 +3914,10 @@
         <v>113.5</v>
       </c>
       <c r="C204">
-        <v>108.6</v>
+        <v>108.4</v>
       </c>
       <c r="D204">
-        <v>-3</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3925,10 +3928,10 @@
         <v>123</v>
       </c>
       <c r="C205">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="D205">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3939,10 +3942,10 @@
         <v>110</v>
       </c>
       <c r="C206">
-        <v>113.7</v>
+        <v>113.5</v>
       </c>
       <c r="D206">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3953,10 +3956,10 @@
         <v>106.3</v>
       </c>
       <c r="C207">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="D207">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3967,10 +3970,10 @@
         <v>113.4</v>
       </c>
       <c r="C208">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="D208">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3981,10 +3984,10 @@
         <v>98.5</v>
       </c>
       <c r="C209">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="D209">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3995,10 +3998,10 @@
         <v>97.8</v>
       </c>
       <c r="C210">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D210">
-        <v>-10.3</v>
+        <v>-10.2</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4009,10 +4012,10 @@
         <v>96.09999999999999</v>
       </c>
       <c r="C211">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="D211">
-        <v>-12.4</v>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4023,10 +4026,10 @@
         <v>96.09999999999999</v>
       </c>
       <c r="C212">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="D212">
-        <v>-8.6</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4037,10 +4040,10 @@
         <v>101.1</v>
       </c>
       <c r="C213">
-        <v>102.3</v>
+        <v>102.6</v>
       </c>
       <c r="D213">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4051,10 +4054,10 @@
         <v>103.2</v>
       </c>
       <c r="C214">
-        <v>106.9</v>
+        <v>106.7</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4065,10 +4068,10 @@
         <v>108.5</v>
       </c>
       <c r="C215">
-        <v>107.2</v>
+        <v>107</v>
       </c>
       <c r="D215">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4079,10 +4082,10 @@
         <v>114.6</v>
       </c>
       <c r="C216">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="D216">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4093,10 +4096,10 @@
         <v>122.9</v>
       </c>
       <c r="C217">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="D217">
-        <v>6.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4107,10 +4110,10 @@
         <v>106.7</v>
       </c>
       <c r="C218">
-        <v>112.7</v>
+        <v>112.5</v>
       </c>
       <c r="D218">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4121,10 +4124,10 @@
         <v>104.2</v>
       </c>
       <c r="C219">
-        <v>114.2</v>
+        <v>114</v>
       </c>
       <c r="D219">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4135,10 +4138,10 @@
         <v>120.5</v>
       </c>
       <c r="C220">
-        <v>113.1</v>
+        <v>113</v>
       </c>
       <c r="D220">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4149,10 +4152,10 @@
         <v>112.8</v>
       </c>
       <c r="C221">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="D221">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4163,10 +4166,10 @@
         <v>116.6</v>
       </c>
       <c r="C222">
-        <v>115.4</v>
+        <v>115.6</v>
       </c>
       <c r="D222">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4177,10 +4180,10 @@
         <v>115.9</v>
       </c>
       <c r="C223">
-        <v>117.5</v>
+        <v>117.9</v>
       </c>
       <c r="D223">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4191,10 +4194,10 @@
         <v>113.5</v>
       </c>
       <c r="C224">
-        <v>119.2</v>
+        <v>119.6</v>
       </c>
       <c r="D224">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4205,10 +4208,24 @@
         <v>120.3</v>
       </c>
       <c r="C225">
-        <v>120.4</v>
+        <v>120.9</v>
       </c>
       <c r="D225">
-        <v>4.9</v>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226">
+        <v>119.2</v>
+      </c>
+      <c r="C226">
+        <v>123</v>
+      </c>
+      <c r="D226">
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>
